--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value215.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value215.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.184420995198107</v>
+        <v>1.592524647712708</v>
       </c>
       <c r="B1">
-        <v>1.591775882777482</v>
+        <v>3.671234130859375</v>
       </c>
       <c r="C1">
-        <v>1.666040479450421</v>
+        <v>5.452422618865967</v>
       </c>
       <c r="D1">
-        <v>1.780331620631837</v>
+        <v>1.347572088241577</v>
       </c>
       <c r="E1">
-        <v>2.136340838058444</v>
+        <v>0.78338223695755</v>
       </c>
     </row>
   </sheetData>
